--- a/data/pca/factorExposure/factorExposure_2017-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02332704929549939</v>
+        <v>-0.009556577287169592</v>
       </c>
       <c r="C2">
-        <v>0.007156092568726018</v>
+        <v>0.04494345515088011</v>
       </c>
       <c r="D2">
-        <v>0.0333233071102174</v>
+        <v>0.02986940741610431</v>
       </c>
       <c r="E2">
-        <v>0.004178052456083565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03335785326149052</v>
+      </c>
+      <c r="F2">
+        <v>0.009363370733853868</v>
+      </c>
+      <c r="G2">
+        <v>0.0970725996464417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01742525487557784</v>
+        <v>-0.0453953540764153</v>
       </c>
       <c r="C3">
-        <v>-0.04115078724676026</v>
+        <v>0.09537665825904858</v>
       </c>
       <c r="D3">
-        <v>0.09433219569285747</v>
+        <v>0.01647912025859993</v>
       </c>
       <c r="E3">
-        <v>0.01524087018381489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1014598090122611</v>
+      </c>
+      <c r="F3">
+        <v>0.00286139835318379</v>
+      </c>
+      <c r="G3">
+        <v>0.1864494835644252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02450612254972647</v>
+        <v>-0.05567958718668198</v>
       </c>
       <c r="C4">
-        <v>-0.006806170993621773</v>
+        <v>0.06831917543742924</v>
       </c>
       <c r="D4">
-        <v>0.08645774984762977</v>
+        <v>0.02447555766645044</v>
       </c>
       <c r="E4">
-        <v>-0.02445771547207191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02656467251766453</v>
+      </c>
+      <c r="F4">
+        <v>0.01142813046814177</v>
+      </c>
+      <c r="G4">
+        <v>0.09722320024001423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01426787119653314</v>
+        <v>-0.0368887756111692</v>
       </c>
       <c r="C6">
-        <v>0.007989956117543894</v>
+        <v>0.05329903438982409</v>
       </c>
       <c r="D6">
-        <v>0.08337337984244032</v>
+        <v>0.01677004973317467</v>
       </c>
       <c r="E6">
-        <v>-0.01542093962360417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02780179157709747</v>
+      </c>
+      <c r="F6">
+        <v>0.008323558594253268</v>
+      </c>
+      <c r="G6">
+        <v>0.07250668772296576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01136321752784344</v>
+        <v>-0.02019020920192364</v>
       </c>
       <c r="C7">
-        <v>-0.002553516663465414</v>
+        <v>0.04158231699262359</v>
       </c>
       <c r="D7">
-        <v>0.0450307396847098</v>
+        <v>0.0132670902629526</v>
       </c>
       <c r="E7">
-        <v>-0.06301086779637372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.003918157086872984</v>
+      </c>
+      <c r="F7">
+        <v>-0.004097851613652638</v>
+      </c>
+      <c r="G7">
+        <v>0.1281317635140287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007334417235286303</v>
+        <v>-0.003123995495123575</v>
       </c>
       <c r="C8">
-        <v>0.0007126161224254465</v>
+        <v>0.02490401445334104</v>
       </c>
       <c r="D8">
-        <v>0.006543019148247998</v>
+        <v>0.004014637979490424</v>
       </c>
       <c r="E8">
-        <v>-0.009336957842499539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02297855714502629</v>
+      </c>
+      <c r="F8">
+        <v>0.005965497870078423</v>
+      </c>
+      <c r="G8">
+        <v>0.06882635423506969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0168113023196319</v>
+        <v>-0.03330251745368481</v>
       </c>
       <c r="C9">
-        <v>-0.009468938554841714</v>
+        <v>0.04980905763756911</v>
       </c>
       <c r="D9">
-        <v>0.06533678066182831</v>
+        <v>0.01679858647299482</v>
       </c>
       <c r="E9">
-        <v>-0.01126273185982969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01803230207830177</v>
+      </c>
+      <c r="F9">
+        <v>0.01055227471886097</v>
+      </c>
+      <c r="G9">
+        <v>0.0961514071036603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02568561629604258</v>
+        <v>-0.09866879613754077</v>
       </c>
       <c r="C10">
-        <v>-0.1800526247100603</v>
+        <v>-0.180832978575788</v>
       </c>
       <c r="D10">
-        <v>-0.08748652023774682</v>
+        <v>-0.01452887718055614</v>
       </c>
       <c r="E10">
-        <v>0.02183439615196487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0206621027970125</v>
+      </c>
+      <c r="F10">
+        <v>-0.02073801065158579</v>
+      </c>
+      <c r="G10">
+        <v>0.06025473796169195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007461633400850687</v>
+        <v>-0.03441519215415319</v>
       </c>
       <c r="C11">
-        <v>0.002073488071667347</v>
+        <v>0.05525951551911105</v>
       </c>
       <c r="D11">
-        <v>0.05813333496741298</v>
+        <v>0.002421783331061714</v>
       </c>
       <c r="E11">
-        <v>-0.002874756924186118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009692390332457257</v>
+      </c>
+      <c r="F11">
+        <v>0.02126912968885419</v>
+      </c>
+      <c r="G11">
+        <v>0.08263465389703102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005529869956594329</v>
+        <v>-0.03618860346026704</v>
       </c>
       <c r="C12">
-        <v>0.0003463495086778726</v>
+        <v>0.04943099660570312</v>
       </c>
       <c r="D12">
-        <v>0.05294073363839608</v>
+        <v>0.006165895382998658</v>
       </c>
       <c r="E12">
-        <v>-0.01451064621988803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001468826239592577</v>
+      </c>
+      <c r="F12">
+        <v>0.00127261179957006</v>
+      </c>
+      <c r="G12">
+        <v>0.07640612856586224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02433752655683592</v>
+        <v>-0.01527716506859459</v>
       </c>
       <c r="C13">
-        <v>-0.01403317929055036</v>
+        <v>0.04051742188462362</v>
       </c>
       <c r="D13">
-        <v>0.03889984771943181</v>
+        <v>0.02639508270329731</v>
       </c>
       <c r="E13">
-        <v>0.004767662420462291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03113373753970863</v>
+      </c>
+      <c r="F13">
+        <v>0.006527255070225942</v>
+      </c>
+      <c r="G13">
+        <v>0.1204346546819657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009003940702550627</v>
+        <v>-0.008479594762241955</v>
       </c>
       <c r="C14">
-        <v>-0.01201735383719781</v>
+        <v>0.02887549195961398</v>
       </c>
       <c r="D14">
-        <v>0.01988089996356146</v>
+        <v>0.009813816746176559</v>
       </c>
       <c r="E14">
-        <v>-0.008377682916301381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002642756393326943</v>
+      </c>
+      <c r="F14">
+        <v>-0.008350419396273309</v>
+      </c>
+      <c r="G14">
+        <v>0.1008037556759747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001534464029125151</v>
+        <v>-0.03300575781287234</v>
       </c>
       <c r="C16">
-        <v>-0.003824004787828511</v>
+        <v>0.04896259228280923</v>
       </c>
       <c r="D16">
-        <v>0.05460066798646886</v>
+        <v>0.001959726026541061</v>
       </c>
       <c r="E16">
-        <v>-0.01310827668058288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00849633955293925</v>
+      </c>
+      <c r="F16">
+        <v>0.002244345157603366</v>
+      </c>
+      <c r="G16">
+        <v>0.08445897420654225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01560129990215413</v>
+        <v>-0.02150311803960715</v>
       </c>
       <c r="C19">
-        <v>-0.0184081490771135</v>
+        <v>0.05322686643121117</v>
       </c>
       <c r="D19">
-        <v>0.04689566794251916</v>
+        <v>0.0188702653443393</v>
       </c>
       <c r="E19">
-        <v>-0.01773991909790767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06733365839862751</v>
+      </c>
+      <c r="F19">
+        <v>0.02112949912491378</v>
+      </c>
+      <c r="G19">
+        <v>0.1381886596242531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01144627117173655</v>
+        <v>-0.01481371842925156</v>
       </c>
       <c r="C20">
-        <v>-0.004323515681209106</v>
+        <v>0.03979797178812069</v>
       </c>
       <c r="D20">
-        <v>0.03685182509145388</v>
+        <v>0.01412529457177691</v>
       </c>
       <c r="E20">
-        <v>0.00739826886730357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02871849238617882</v>
+      </c>
+      <c r="F20">
+        <v>-0.0112442526791131</v>
+      </c>
+      <c r="G20">
+        <v>0.1067727482594154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01578069775651492</v>
+        <v>-0.01263693352140982</v>
       </c>
       <c r="C21">
-        <v>-0.01432254035250049</v>
+        <v>0.04035828770099035</v>
       </c>
       <c r="D21">
-        <v>0.03896857840805653</v>
+        <v>0.01858516543213383</v>
       </c>
       <c r="E21">
-        <v>-0.01055432449252373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04269987048023927</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001412277923511135</v>
+      </c>
+      <c r="G21">
+        <v>0.1333483690585393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005827152451320821</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001614642522119623</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.000231386330019139</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0008097181404506491</v>
+      </c>
+      <c r="F22">
+        <v>-2.096625265211437e-05</v>
+      </c>
+      <c r="G22">
+        <v>0.002002751805841564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005870604287849581</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001610891743970128</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002315132343297111</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0008152318357420597</v>
+      </c>
+      <c r="F23">
+        <v>-2.270269086971197e-05</v>
+      </c>
+      <c r="G23">
+        <v>0.002013348662371391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004246021347691743</v>
+        <v>-0.02793009947248102</v>
       </c>
       <c r="C24">
-        <v>0.007928234592420614</v>
+        <v>0.05170907519347646</v>
       </c>
       <c r="D24">
-        <v>0.05183331626041647</v>
+        <v>0.00721973515578099</v>
       </c>
       <c r="E24">
-        <v>-0.01090059592804034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005527802018452479</v>
+      </c>
+      <c r="F24">
+        <v>0.01396596517584766</v>
+      </c>
+      <c r="G24">
+        <v>0.08410760663020471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01247243279424957</v>
+        <v>-0.04272571097370517</v>
       </c>
       <c r="C25">
-        <v>-0.009497502554521904</v>
+        <v>0.05949396283913015</v>
       </c>
       <c r="D25">
-        <v>0.05999004579764664</v>
+        <v>0.01114857997318619</v>
       </c>
       <c r="E25">
-        <v>-0.01280826875607241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001572695191547952</v>
+      </c>
+      <c r="F25">
+        <v>0.007671605332916291</v>
+      </c>
+      <c r="G25">
+        <v>0.09328506001027377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02323641515938303</v>
+        <v>-0.01357320715650607</v>
       </c>
       <c r="C26">
-        <v>-0.006016198830049615</v>
+        <v>0.01165349946381113</v>
       </c>
       <c r="D26">
-        <v>0.002792634289848093</v>
+        <v>0.02386606413123761</v>
       </c>
       <c r="E26">
-        <v>-0.009728693271973902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005450808173017936</v>
+      </c>
+      <c r="F26">
+        <v>-0.009459957336418405</v>
+      </c>
+      <c r="G26">
+        <v>0.07924006133701048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0496254868974669</v>
+        <v>-0.1261036266500467</v>
       </c>
       <c r="C28">
-        <v>-0.2491099611287957</v>
+        <v>-0.2360950625265791</v>
       </c>
       <c r="D28">
-        <v>-0.1168005310223162</v>
+        <v>-0.005329577552135376</v>
       </c>
       <c r="E28">
-        <v>0.000362339644415465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008083116109080418</v>
+      </c>
+      <c r="F28">
+        <v>-0.01443764593845551</v>
+      </c>
+      <c r="G28">
+        <v>0.05800087093784902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009336590337485426</v>
+        <v>-0.009467346331714496</v>
       </c>
       <c r="C29">
-        <v>-0.01554148835881244</v>
+        <v>0.02269787910019288</v>
       </c>
       <c r="D29">
-        <v>0.01874025546342133</v>
+        <v>0.008808853741708733</v>
       </c>
       <c r="E29">
-        <v>-0.005614264354559264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001534237037746653</v>
+      </c>
+      <c r="F29">
+        <v>-0.01775759684422338</v>
+      </c>
+      <c r="G29">
+        <v>0.09341407359467994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02398667964567643</v>
+        <v>-0.04100418431455149</v>
       </c>
       <c r="C30">
-        <v>0.009692603815719238</v>
+        <v>0.06974668486991646</v>
       </c>
       <c r="D30">
-        <v>0.09928855696285212</v>
+        <v>0.02902247768992122</v>
       </c>
       <c r="E30">
-        <v>0.02904623478203475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05245758080699651</v>
+      </c>
+      <c r="F30">
+        <v>0.0448471603862714</v>
+      </c>
+      <c r="G30">
+        <v>0.110305695361777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01059290374270935</v>
+        <v>-0.05293291677180011</v>
       </c>
       <c r="C31">
-        <v>-0.03432998308384748</v>
+        <v>0.03777112485773883</v>
       </c>
       <c r="D31">
-        <v>0.0417164776842632</v>
+        <v>0.003623381635810989</v>
       </c>
       <c r="E31">
-        <v>-0.01102283372675599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.002184791932313314</v>
+      </c>
+      <c r="F31">
+        <v>-0.03946843476606717</v>
+      </c>
+      <c r="G31">
+        <v>0.08933208389331868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004896083003275824</v>
+        <v>-0.001153011316739544</v>
       </c>
       <c r="C32">
-        <v>-0.01808781585423451</v>
+        <v>0.02585277031551662</v>
       </c>
       <c r="D32">
-        <v>0.008849901324540322</v>
+        <v>-0.003385693799083306</v>
       </c>
       <c r="E32">
-        <v>-0.05908503959182851</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01973011052572542</v>
+      </c>
+      <c r="F32">
+        <v>0.03657383113683957</v>
+      </c>
+      <c r="G32">
+        <v>0.09534714118831546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01494632817413056</v>
+        <v>-0.02781463892561292</v>
       </c>
       <c r="C33">
-        <v>-0.02063547264834219</v>
+        <v>0.05065013843512689</v>
       </c>
       <c r="D33">
-        <v>0.04780873494925374</v>
+        <v>0.01570672109185385</v>
       </c>
       <c r="E33">
-        <v>0.01925771906647001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03547339416814534</v>
+      </c>
+      <c r="F33">
+        <v>0.01593937651595911</v>
+      </c>
+      <c r="G33">
+        <v>0.1427055251760128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003843725516791274</v>
+        <v>-0.04012302772955657</v>
       </c>
       <c r="C34">
-        <v>-0.009588566928338937</v>
+        <v>0.06189649709294193</v>
       </c>
       <c r="D34">
-        <v>0.05702760853680697</v>
+        <v>-0.004639646298062698</v>
       </c>
       <c r="E34">
-        <v>-0.01809084888249196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0003976896330887947</v>
+      </c>
+      <c r="F34">
+        <v>0.02005891243079922</v>
+      </c>
+      <c r="G34">
+        <v>0.09182450676954584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01362188208171284</v>
+        <v>-0.01585675550449538</v>
       </c>
       <c r="C36">
-        <v>-0.01754268111278859</v>
+        <v>0.009663980313697492</v>
       </c>
       <c r="D36">
-        <v>0.01032682564225327</v>
+        <v>0.01226984356466641</v>
       </c>
       <c r="E36">
-        <v>-0.007502426536084246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004405177844978625</v>
+      </c>
+      <c r="F36">
+        <v>-0.00677780187888217</v>
+      </c>
+      <c r="G36">
+        <v>0.0833800025016395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001946760702668936</v>
+        <v>-0.03214131220028436</v>
       </c>
       <c r="C38">
-        <v>-0.03051867138814826</v>
+        <v>0.03199483258913391</v>
       </c>
       <c r="D38">
-        <v>0.05595990259450519</v>
+        <v>-0.007608472164175011</v>
       </c>
       <c r="E38">
-        <v>-0.01666243956259251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00258934628611842</v>
+      </c>
+      <c r="F38">
+        <v>-0.01897496268076656</v>
+      </c>
+      <c r="G38">
+        <v>0.08268050423263072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003995345699917816</v>
+        <v>-0.03516848062033429</v>
       </c>
       <c r="C39">
-        <v>0.03203563400734889</v>
+        <v>0.0814209199346696</v>
       </c>
       <c r="D39">
-        <v>0.102197388371429</v>
+        <v>0.01174827852718729</v>
       </c>
       <c r="E39">
-        <v>-0.0007601332570515589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02105897663379761</v>
+      </c>
+      <c r="F39">
+        <v>0.02561167226120537</v>
+      </c>
+      <c r="G39">
+        <v>0.08423552065433544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01227970966736147</v>
+        <v>-0.01511739860502007</v>
       </c>
       <c r="C40">
-        <v>-0.008838878799275716</v>
+        <v>0.04320402059322512</v>
       </c>
       <c r="D40">
-        <v>0.04407120392863468</v>
+        <v>0.01479551190563589</v>
       </c>
       <c r="E40">
-        <v>-0.01714554111236606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02076114810754238</v>
+      </c>
+      <c r="F40">
+        <v>-0.01612169620590181</v>
+      </c>
+      <c r="G40">
+        <v>0.1215696296015112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006913195120484905</v>
+        <v>-0.02016928308637548</v>
       </c>
       <c r="C41">
-        <v>-0.02230986802059087</v>
+        <v>0.001688341468161782</v>
       </c>
       <c r="D41">
-        <v>-0.009562684001713969</v>
+        <v>0.004253482556061301</v>
       </c>
       <c r="E41">
-        <v>-0.004241949188659062</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002467765545764709</v>
+      </c>
+      <c r="F41">
+        <v>-0.01318668744984091</v>
+      </c>
+      <c r="G41">
+        <v>0.07353790403026987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08935649183615203</v>
+        <v>-0.007955185827518228</v>
       </c>
       <c r="C42">
-        <v>0.05023727205933393</v>
+        <v>0.03663765898866017</v>
       </c>
       <c r="D42">
-        <v>0.1728238648236575</v>
+        <v>0.09170341476002665</v>
       </c>
       <c r="E42">
-        <v>0.4527069329065082</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01575120343745836</v>
+      </c>
+      <c r="F42">
+        <v>-0.03432959692998266</v>
+      </c>
+      <c r="G42">
+        <v>-0.1401429892109132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008354075591903994</v>
+        <v>-0.03391361837056553</v>
       </c>
       <c r="C43">
-        <v>-0.02697510360306394</v>
+        <v>0.01744932566980342</v>
       </c>
       <c r="D43">
-        <v>-0.005030521125224844</v>
+        <v>0.005974097401925939</v>
       </c>
       <c r="E43">
-        <v>-0.004557897040596184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01610123526502068</v>
+      </c>
+      <c r="F43">
+        <v>-0.003902393542449544</v>
+      </c>
+      <c r="G43">
+        <v>0.1077776274940431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003518981535449474</v>
+        <v>-0.01225599123845222</v>
       </c>
       <c r="C44">
-        <v>0.0001913504134605569</v>
+        <v>0.05927694884434914</v>
       </c>
       <c r="D44">
-        <v>0.05585040342355237</v>
+        <v>0.006701177488480564</v>
       </c>
       <c r="E44">
-        <v>-0.01664044231734996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01766719172984621</v>
+      </c>
+      <c r="F44">
+        <v>-0.009336206885453037</v>
+      </c>
+      <c r="G44">
+        <v>0.1000155574659243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01157612716508233</v>
+        <v>-0.008005404664154964</v>
       </c>
       <c r="C46">
-        <v>-0.01186090303869388</v>
+        <v>0.0180926383413148</v>
       </c>
       <c r="D46">
-        <v>0.00806528773991852</v>
+        <v>0.01250788934098184</v>
       </c>
       <c r="E46">
-        <v>0.00135773291928118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001496007928064577</v>
+      </c>
+      <c r="F46">
+        <v>-0.01771794083032995</v>
+      </c>
+      <c r="G46">
+        <v>0.0964911642178093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004888772709620931</v>
+        <v>-0.0769916832461886</v>
       </c>
       <c r="C47">
-        <v>-0.03947245771970134</v>
+        <v>0.06671426146920892</v>
       </c>
       <c r="D47">
-        <v>0.07336009173254844</v>
+        <v>-0.005299749611251969</v>
       </c>
       <c r="E47">
-        <v>-0.01277306862116872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008357047117228907</v>
+      </c>
+      <c r="F47">
+        <v>-0.05433150083760907</v>
+      </c>
+      <c r="G47">
+        <v>0.079506547481319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004813937321933933</v>
+        <v>-0.02024269451853481</v>
       </c>
       <c r="C48">
-        <v>-0.02280937195579757</v>
+        <v>0.01292327866905446</v>
       </c>
       <c r="D48">
-        <v>0.0227805702754684</v>
+        <v>0.001642256110167128</v>
       </c>
       <c r="E48">
-        <v>-0.003977851522273519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001401817052001294</v>
+      </c>
+      <c r="F48">
+        <v>-0.02080942581804491</v>
+      </c>
+      <c r="G48">
+        <v>0.08673179189132911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007146890561802254</v>
+        <v>-0.07522456081618538</v>
       </c>
       <c r="C50">
-        <v>-0.04373682842129308</v>
+        <v>0.07021494564583303</v>
       </c>
       <c r="D50">
-        <v>0.07136465692831184</v>
+        <v>-0.002956803838216512</v>
       </c>
       <c r="E50">
-        <v>-0.03613896271436459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00934468613855134</v>
+      </c>
+      <c r="F50">
+        <v>-0.05625367299785441</v>
+      </c>
+      <c r="G50">
+        <v>0.09364977244141703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007952564359296369</v>
+        <v>-0.01399459208468913</v>
       </c>
       <c r="C51">
-        <v>-0.01264288728554722</v>
+        <v>0.03605434191476772</v>
       </c>
       <c r="D51">
-        <v>0.01803302300675705</v>
+        <v>0.01037334527200279</v>
       </c>
       <c r="E51">
-        <v>-0.008354979310114183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01919130886427508</v>
+      </c>
+      <c r="F51">
+        <v>0.02272139129398891</v>
+      </c>
+      <c r="G51">
+        <v>0.1235541667466838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.008631288565054362</v>
+        <v>-0.0813940992245452</v>
       </c>
       <c r="C53">
-        <v>-0.04578649250335258</v>
+        <v>0.08482095951172572</v>
       </c>
       <c r="D53">
-        <v>0.1299834444723228</v>
+        <v>-0.004012128018564529</v>
       </c>
       <c r="E53">
-        <v>-0.02588406574578216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02663085066347216</v>
+      </c>
+      <c r="F53">
+        <v>-0.0672417807662921</v>
+      </c>
+      <c r="G53">
+        <v>0.07715724579871711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002609627981520171</v>
+        <v>-0.02975292273073563</v>
       </c>
       <c r="C54">
-        <v>-0.03362871281844611</v>
+        <v>0.01658959108896157</v>
       </c>
       <c r="D54">
-        <v>0.002403870755407553</v>
+        <v>-0.001258323523365753</v>
       </c>
       <c r="E54">
-        <v>0.006467049588784552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01307291966725564</v>
+      </c>
+      <c r="F54">
+        <v>0.000340428952572408</v>
+      </c>
+      <c r="G54">
+        <v>0.09616369359074213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004539055481784425</v>
+        <v>-0.07148890657075874</v>
       </c>
       <c r="C55">
-        <v>-0.029512569203612</v>
+        <v>0.06898138418962332</v>
       </c>
       <c r="D55">
-        <v>0.1056387457563512</v>
+        <v>-0.005368391812860116</v>
       </c>
       <c r="E55">
-        <v>-0.01132026591089618</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02367014859893268</v>
+      </c>
+      <c r="F55">
+        <v>-0.06223147538568843</v>
+      </c>
+      <c r="G55">
+        <v>0.05281180070715881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007693279484855122</v>
+        <v>-0.1372474224256076</v>
       </c>
       <c r="C56">
-        <v>-0.06651833668204993</v>
+        <v>0.1084656988225099</v>
       </c>
       <c r="D56">
-        <v>0.1600903099118341</v>
+        <v>-0.01295726017722956</v>
       </c>
       <c r="E56">
-        <v>-0.02127528962100858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03317243342409412</v>
+      </c>
+      <c r="F56">
+        <v>-0.08091282775229963</v>
+      </c>
+      <c r="G56">
+        <v>0.02572147473689535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02284665285507653</v>
+        <v>-0.006516321293581543</v>
       </c>
       <c r="C57">
-        <v>0.003033308021756587</v>
+        <v>0.009262927780149192</v>
       </c>
       <c r="D57">
-        <v>0.04912412248903535</v>
+        <v>0.02356284585415131</v>
       </c>
       <c r="E57">
-        <v>0.01315129714771874</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02506270693848694</v>
+      </c>
+      <c r="F57">
+        <v>0.009413917545173506</v>
+      </c>
+      <c r="G57">
+        <v>0.02857690356250404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01446989927186206</v>
+        <v>-0.05520918083755377</v>
       </c>
       <c r="C58">
-        <v>-0.05459550842115735</v>
+        <v>0.05490963659222001</v>
       </c>
       <c r="D58">
-        <v>0.1890660129918407</v>
+        <v>0.02558053479379918</v>
       </c>
       <c r="E58">
-        <v>0.5820361044079292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9325180796180447</v>
+      </c>
+      <c r="F58">
+        <v>-0.2387240702285406</v>
+      </c>
+      <c r="G58">
+        <v>-0.1541218257740194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04963119429879349</v>
+        <v>-0.1604212780624435</v>
       </c>
       <c r="C59">
-        <v>-0.2751659663032875</v>
+        <v>-0.2030319133259413</v>
       </c>
       <c r="D59">
-        <v>-0.1006064443261759</v>
+        <v>-0.01076703145284502</v>
       </c>
       <c r="E59">
-        <v>-0.009647271681344211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01944216117603909</v>
+      </c>
+      <c r="F59">
+        <v>0.004823121973896393</v>
+      </c>
+      <c r="G59">
+        <v>0.0423073113730419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04583327968280049</v>
+        <v>-0.2862171336922524</v>
       </c>
       <c r="C60">
-        <v>-0.1457463848887496</v>
+        <v>0.1079211778943936</v>
       </c>
       <c r="D60">
-        <v>0.1398368520391139</v>
+        <v>0.01277883764914514</v>
       </c>
       <c r="E60">
-        <v>-0.05725153761953164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00107105855795593</v>
+      </c>
+      <c r="F60">
+        <v>0.3466204795255708</v>
+      </c>
+      <c r="G60">
+        <v>-0.1345633040711106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003412088807893263</v>
+        <v>-0.03749814360621114</v>
       </c>
       <c r="C61">
-        <v>0.001677023909505962</v>
+        <v>0.06784465910626336</v>
       </c>
       <c r="D61">
-        <v>0.08037673995918806</v>
+        <v>0.00522699014066752</v>
       </c>
       <c r="E61">
-        <v>-0.01840111085772692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01334377517725427</v>
+      </c>
+      <c r="F61">
+        <v>0.0137939733904524</v>
+      </c>
+      <c r="G61">
+        <v>0.08683627585111896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008602211247269256</v>
+        <v>-0.01499921079832282</v>
       </c>
       <c r="C63">
-        <v>-0.005873678232632793</v>
+        <v>0.03008388395642237</v>
       </c>
       <c r="D63">
-        <v>0.02700778458960487</v>
+        <v>0.008353117283384306</v>
       </c>
       <c r="E63">
-        <v>-0.02395446557842051</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0005042791079743212</v>
+      </c>
+      <c r="F63">
+        <v>-0.01746357550027878</v>
+      </c>
+      <c r="G63">
+        <v>0.09114802802988763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009648104844739143</v>
+        <v>-0.04743331490236255</v>
       </c>
       <c r="C64">
-        <v>-0.0227449090670526</v>
+        <v>0.04731658970200776</v>
       </c>
       <c r="D64">
-        <v>0.06323085170389439</v>
+        <v>0.00622148285276058</v>
       </c>
       <c r="E64">
-        <v>-0.003491696968667058</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0001256553633083591</v>
+      </c>
+      <c r="F64">
+        <v>0.006933974697946178</v>
+      </c>
+      <c r="G64">
+        <v>0.08481617997075185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01706268996016883</v>
+        <v>-0.0748177821903183</v>
       </c>
       <c r="C65">
-        <v>0.006977027479798094</v>
+        <v>0.06047342364026129</v>
       </c>
       <c r="D65">
-        <v>0.1013416397587448</v>
+        <v>0.01647118872940595</v>
       </c>
       <c r="E65">
-        <v>-0.02436899202846738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02918297155706815</v>
+      </c>
+      <c r="F65">
+        <v>0.02889464414521265</v>
+      </c>
+      <c r="G65">
+        <v>0.02985460359538144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004340876769294332</v>
+        <v>-0.05118033934529882</v>
       </c>
       <c r="C66">
-        <v>0.02956374741781338</v>
+        <v>0.1110454233389489</v>
       </c>
       <c r="D66">
-        <v>0.139115310814266</v>
+        <v>0.01173274577476567</v>
       </c>
       <c r="E66">
-        <v>-0.009942464382042887</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03042577021643795</v>
+      </c>
+      <c r="F66">
+        <v>0.03527383276442787</v>
+      </c>
+      <c r="G66">
+        <v>0.09977434861409118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.004997806821389375</v>
+        <v>-0.05506847030145996</v>
       </c>
       <c r="C67">
-        <v>-0.04971655945679434</v>
+        <v>0.03560320613595929</v>
       </c>
       <c r="D67">
-        <v>0.07197240041912055</v>
+        <v>-0.005992255430971307</v>
       </c>
       <c r="E67">
-        <v>-0.02038044961266141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004382988507255024</v>
+      </c>
+      <c r="F67">
+        <v>-0.01787941859499106</v>
+      </c>
+      <c r="G67">
+        <v>0.07400035485483761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06395941881412191</v>
+        <v>-0.1539369926372356</v>
       </c>
       <c r="C68">
-        <v>-0.2499509640877708</v>
+        <v>-0.2687080356626167</v>
       </c>
       <c r="D68">
-        <v>-0.1454892503910456</v>
+        <v>0.006697772435257118</v>
       </c>
       <c r="E68">
-        <v>0.03139874796546344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01287602286456024</v>
+      </c>
+      <c r="F68">
+        <v>-0.03095179841859066</v>
+      </c>
+      <c r="G68">
+        <v>0.03052639660884649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.000301687278873003</v>
+        <v>-0.08126248320360333</v>
       </c>
       <c r="C69">
-        <v>-0.03233585969278628</v>
+        <v>0.06979504403532184</v>
       </c>
       <c r="D69">
-        <v>0.07727357466220205</v>
+        <v>-0.009254941193146517</v>
       </c>
       <c r="E69">
-        <v>-0.02574903493054771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02410540774789716</v>
+      </c>
+      <c r="F69">
+        <v>-0.03666450562964475</v>
+      </c>
+      <c r="G69">
+        <v>0.08906459839655759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04831932133349407</v>
+        <v>-0.140083642811643</v>
       </c>
       <c r="C71">
-        <v>-0.2177479522007534</v>
+        <v>-0.2275465337352586</v>
       </c>
       <c r="D71">
-        <v>-0.09907085052918062</v>
+        <v>-0.002012534811696052</v>
       </c>
       <c r="E71">
-        <v>0.02088605064065063</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03332159585905003</v>
+      </c>
+      <c r="F71">
+        <v>-0.01865231334747403</v>
+      </c>
+      <c r="G71">
+        <v>0.06551578402460899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001483337602620301</v>
+        <v>-0.08458449075618221</v>
       </c>
       <c r="C72">
-        <v>-0.02070599825946374</v>
+        <v>0.07440249895690446</v>
       </c>
       <c r="D72">
-        <v>0.1143645587805628</v>
+        <v>-0.007971396550174306</v>
       </c>
       <c r="E72">
-        <v>-0.0297678717086995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0026048628476</v>
+      </c>
+      <c r="F72">
+        <v>0.04036503800351134</v>
+      </c>
+      <c r="G72">
+        <v>0.07666442699000973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05872015192254747</v>
+        <v>-0.3741036209477984</v>
       </c>
       <c r="C73">
-        <v>-0.1525167517223955</v>
+        <v>0.1191792077556973</v>
       </c>
       <c r="D73">
-        <v>0.2507489919167039</v>
+        <v>0.02200813378202974</v>
       </c>
       <c r="E73">
-        <v>-0.03077564184956612</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07028509899989636</v>
+      </c>
+      <c r="F73">
+        <v>0.5768436464114302</v>
+      </c>
+      <c r="G73">
+        <v>-0.2667144066563664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005099655854566135</v>
+        <v>-0.1050761631902104</v>
       </c>
       <c r="C74">
-        <v>-0.05339562611852254</v>
+        <v>0.1104223747660307</v>
       </c>
       <c r="D74">
-        <v>0.1770030383738434</v>
+        <v>-0.009830616201854407</v>
       </c>
       <c r="E74">
-        <v>-0.01913160905379914</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01001234438994115</v>
+      </c>
+      <c r="F74">
+        <v>-0.07146439037539368</v>
+      </c>
+      <c r="G74">
+        <v>0.0712156341179753</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01456567528253019</v>
+        <v>-0.2495583557156083</v>
       </c>
       <c r="C75">
-        <v>-0.1352235496812295</v>
+        <v>0.1510214082191092</v>
       </c>
       <c r="D75">
-        <v>0.2985885597116724</v>
+        <v>-0.03137709068493906</v>
       </c>
       <c r="E75">
-        <v>-0.02232909406128709</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05877005164093555</v>
+      </c>
+      <c r="F75">
+        <v>-0.1758981699204574</v>
+      </c>
+      <c r="G75">
+        <v>-0.04795943967121178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.003566656137718879</v>
+        <v>-0.121060165508616</v>
       </c>
       <c r="C76">
-        <v>-0.08476377332844753</v>
+        <v>0.1118076010544716</v>
       </c>
       <c r="D76">
-        <v>0.225191777823826</v>
+        <v>-0.01973490068115152</v>
       </c>
       <c r="E76">
-        <v>-0.05897918518225951</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03567843197160869</v>
+      </c>
+      <c r="F76">
+        <v>-0.1173071246675221</v>
+      </c>
+      <c r="G76">
+        <v>0.04562903955158799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01519793791288626</v>
+        <v>-0.06863473669586033</v>
       </c>
       <c r="C77">
-        <v>-0.01903585260477584</v>
+        <v>0.06197614481624046</v>
       </c>
       <c r="D77">
-        <v>0.06975650007636577</v>
+        <v>0.01148425332755014</v>
       </c>
       <c r="E77">
-        <v>0.0007393349242978071</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04262823428253414</v>
+      </c>
+      <c r="F77">
+        <v>0.009282039625311952</v>
+      </c>
+      <c r="G77">
+        <v>0.06463588600629605</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00583880949738197</v>
+        <v>-0.0427602500834138</v>
       </c>
       <c r="C78">
-        <v>-0.009794590602317785</v>
+        <v>0.05295278429526824</v>
       </c>
       <c r="D78">
-        <v>0.06078470988715896</v>
+        <v>0.005622527970468352</v>
       </c>
       <c r="E78">
-        <v>-0.00522729799435597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02245297465605336</v>
+      </c>
+      <c r="F78">
+        <v>0.03474746131898292</v>
+      </c>
+      <c r="G78">
+        <v>0.09146399588881347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.009866709936600437</v>
+        <v>-0.0431587239668645</v>
       </c>
       <c r="C80">
-        <v>-0.009588498694468039</v>
+        <v>0.07234706607246146</v>
       </c>
       <c r="D80">
-        <v>0.1429678184739555</v>
+        <v>0.01072184321185887</v>
       </c>
       <c r="E80">
-        <v>-0.6324594092913749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03164036268176955</v>
+      </c>
+      <c r="F80">
+        <v>0.02577429832041616</v>
+      </c>
+      <c r="G80">
+        <v>0.3648909890774631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.009980967325103028</v>
+        <v>-0.13994014310938</v>
       </c>
       <c r="C81">
-        <v>-0.08205186108037192</v>
+        <v>0.09675725003910837</v>
       </c>
       <c r="D81">
-        <v>0.1784595087817699</v>
+        <v>-0.01570664854766242</v>
       </c>
       <c r="E81">
-        <v>-0.0332589623699572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03509126676686494</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342398808574604</v>
+      </c>
+      <c r="G81">
+        <v>0.01888992175588789</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1260405030850794</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07253982296044782</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008300166187773208</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09021863061105802</v>
+      </c>
+      <c r="F82">
+        <v>-0.0372682006040997</v>
+      </c>
+      <c r="G82">
+        <v>0.05122205558869251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008278888337921064</v>
+        <v>-0.03599699108114732</v>
       </c>
       <c r="C83">
-        <v>-0.02025472230098816</v>
+        <v>0.02937346982970416</v>
       </c>
       <c r="D83">
-        <v>0.03910958461844162</v>
+        <v>0.005726659475571603</v>
       </c>
       <c r="E83">
-        <v>7.150223553630669e-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0279574194799134</v>
+      </c>
+      <c r="F83">
+        <v>0.03174530480261975</v>
+      </c>
+      <c r="G83">
+        <v>0.0605420407799695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02102584091216313</v>
+        <v>-0.215378583956146</v>
       </c>
       <c r="C85">
-        <v>-0.104065642990657</v>
+        <v>0.1450211207344695</v>
       </c>
       <c r="D85">
-        <v>0.271987649297341</v>
+        <v>-0.01920216353942737</v>
       </c>
       <c r="E85">
-        <v>-0.03735887141313984</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1008329597190573</v>
+      </c>
+      <c r="F85">
+        <v>-0.1390375213696994</v>
+      </c>
+      <c r="G85">
+        <v>-0.1084738378816948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009631593380542359</v>
+        <v>-0.01366769853990434</v>
       </c>
       <c r="C86">
-        <v>-0.02085334014427961</v>
+        <v>0.02901455836886522</v>
       </c>
       <c r="D86">
-        <v>0.05613279724642495</v>
+        <v>0.01257766909637231</v>
       </c>
       <c r="E86">
-        <v>0.03474516541132375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04809876103371812</v>
+      </c>
+      <c r="F86">
+        <v>0.03009803462156136</v>
+      </c>
+      <c r="G86">
+        <v>0.1858261093591725</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007942489434739571</v>
+        <v>-0.02284873566065678</v>
       </c>
       <c r="C87">
-        <v>0.004381014308711195</v>
+        <v>0.02393434543029411</v>
       </c>
       <c r="D87">
-        <v>0.05705554852297754</v>
+        <v>0.01222114177022436</v>
       </c>
       <c r="E87">
-        <v>0.00963796143033452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08693038384551564</v>
+      </c>
+      <c r="F87">
+        <v>0.0147696600724824</v>
+      </c>
+      <c r="G87">
+        <v>0.1175369300574702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02858155005671986</v>
+        <v>-0.09205206618953424</v>
       </c>
       <c r="C88">
-        <v>-0.02635760324998593</v>
+        <v>0.06638980729003471</v>
       </c>
       <c r="D88">
-        <v>0.05590697781657931</v>
+        <v>0.02240035962624108</v>
       </c>
       <c r="E88">
-        <v>-0.003990809365630917</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008501932928963497</v>
+      </c>
+      <c r="F88">
+        <v>-0.01648967856957412</v>
+      </c>
+      <c r="G88">
+        <v>0.08458672206767691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09320560333283505</v>
+        <v>-0.2344003558610846</v>
       </c>
       <c r="C89">
-        <v>-0.4074767971381566</v>
+        <v>-0.3674504781753883</v>
       </c>
       <c r="D89">
-        <v>-0.1750437544422183</v>
+        <v>0.0006958421409518285</v>
       </c>
       <c r="E89">
-        <v>-0.01698664005356908</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01132530824920752</v>
+      </c>
+      <c r="F89">
+        <v>-0.02653606625567486</v>
+      </c>
+      <c r="G89">
+        <v>0.06425800270645549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07152233142400158</v>
+        <v>-0.2077501568443447</v>
       </c>
       <c r="C90">
-        <v>-0.3227430968480959</v>
+        <v>-0.3193666678419502</v>
       </c>
       <c r="D90">
-        <v>-0.1653543785233556</v>
+        <v>-0.003861299273780813</v>
       </c>
       <c r="E90">
-        <v>0.02023491995792293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.00270293203676757</v>
+      </c>
+      <c r="F90">
+        <v>-0.05198331853754113</v>
+      </c>
+      <c r="G90">
+        <v>0.03527070031332296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01154065351350736</v>
+        <v>-0.1882078041758153</v>
       </c>
       <c r="C91">
-        <v>-0.120982354762531</v>
+        <v>0.139074825810084</v>
       </c>
       <c r="D91">
-        <v>0.2263112644977964</v>
+        <v>-0.02338936567621485</v>
       </c>
       <c r="E91">
-        <v>-0.04016557134437031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06442278714191266</v>
+      </c>
+      <c r="F91">
+        <v>-0.1499248709173137</v>
+      </c>
+      <c r="G91">
+        <v>0.0118345160181649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03927758300591006</v>
+        <v>-0.2012909364230619</v>
       </c>
       <c r="C92">
-        <v>-0.3292965436061451</v>
+        <v>-0.2571851224617763</v>
       </c>
       <c r="D92">
-        <v>-0.06007824453626866</v>
+        <v>-0.03828896472009097</v>
       </c>
       <c r="E92">
-        <v>0.02094866672159085</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0305276582017782</v>
+      </c>
+      <c r="F92">
+        <v>-0.06241134712520775</v>
+      </c>
+      <c r="G92">
+        <v>0.1331750535742039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07009584537231975</v>
+        <v>-0.2334246349128001</v>
       </c>
       <c r="C93">
-        <v>-0.34453044378438</v>
+        <v>-0.3146305022206142</v>
       </c>
       <c r="D93">
-        <v>-0.1349188601578288</v>
+        <v>-0.01073091738841055</v>
       </c>
       <c r="E93">
-        <v>0.02941972810522912</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008727673654554909</v>
+      </c>
+      <c r="F93">
+        <v>-0.03804881967517977</v>
+      </c>
+      <c r="G93">
+        <v>0.0472878285564353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03503551953987725</v>
+        <v>-0.3166545774803734</v>
       </c>
       <c r="C94">
-        <v>-0.1400973944470049</v>
+        <v>0.1750713259317782</v>
       </c>
       <c r="D94">
-        <v>0.242312871383557</v>
+        <v>-0.01857203701399738</v>
       </c>
       <c r="E94">
-        <v>-0.01600717951922168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1769189855168568</v>
+      </c>
+      <c r="F94">
+        <v>-0.4707019002112626</v>
+      </c>
+      <c r="G94">
+        <v>-0.3629299995234843</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003124670493740753</v>
+        <v>-0.09960409689728066</v>
       </c>
       <c r="C95">
-        <v>-0.02838242706938103</v>
+        <v>0.08581604008686683</v>
       </c>
       <c r="D95">
-        <v>0.1170075073544797</v>
+        <v>-0.009884255669790287</v>
       </c>
       <c r="E95">
-        <v>0.1288571532113875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07251017250462914</v>
+      </c>
+      <c r="F95">
+        <v>0.2043774605170295</v>
+      </c>
+      <c r="G95">
+        <v>-0.06279302342403888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01880271187129154</v>
+        <v>-0.1970671452989844</v>
       </c>
       <c r="C98">
-        <v>-0.1438373153684585</v>
+        <v>0.0480683377744594</v>
       </c>
       <c r="D98">
-        <v>0.1688782975031685</v>
+        <v>-0.01237038882477308</v>
       </c>
       <c r="E98">
-        <v>0.01214035868452678</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06909492786657047</v>
+      </c>
+      <c r="F98">
+        <v>0.2413196930269105</v>
+      </c>
+      <c r="G98">
+        <v>-0.01355815253834284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009106786538529463</v>
+        <v>-0.009308046581951916</v>
       </c>
       <c r="C101">
-        <v>-0.01523745697129922</v>
+        <v>0.02264624206284769</v>
       </c>
       <c r="D101">
-        <v>0.0183173076437638</v>
+        <v>0.008626772469040369</v>
       </c>
       <c r="E101">
-        <v>-0.005832244150858768</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001229710962999317</v>
+      </c>
+      <c r="F101">
+        <v>-0.01873616816418658</v>
+      </c>
+      <c r="G101">
+        <v>0.09263459412816182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01911491255539339</v>
+        <v>-0.1174901776070031</v>
       </c>
       <c r="C102">
-        <v>-0.05645233060252388</v>
+        <v>0.08415102527601878</v>
       </c>
       <c r="D102">
-        <v>0.1295316034294075</v>
+        <v>0.0004317825545263551</v>
       </c>
       <c r="E102">
-        <v>-0.01808879213174388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0354072697734142</v>
+      </c>
+      <c r="F102">
+        <v>-0.04033055269278038</v>
+      </c>
+      <c r="G102">
+        <v>2.36855073390739e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0008008136617166209</v>
+        <v>-0.001166702545170889</v>
       </c>
       <c r="C103">
-        <v>-0.002468268186717449</v>
+        <v>0.00211488377913263</v>
       </c>
       <c r="D103">
-        <v>0.009255763581547784</v>
+        <v>9.44780276211171e-05</v>
       </c>
       <c r="E103">
-        <v>0.0005025532305967702</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001868104909709295</v>
+      </c>
+      <c r="F103">
+        <v>-0.006666355210360941</v>
+      </c>
+      <c r="G103">
+        <v>0.004574212914592785</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9708205164548745</v>
+        <v>-0.02095888937178346</v>
       </c>
       <c r="C104">
-        <v>0.1953402361116782</v>
+        <v>-0.02863891161486529</v>
       </c>
       <c r="D104">
-        <v>-0.03412903689444844</v>
+        <v>0.9874758975896312</v>
       </c>
       <c r="E104">
-        <v>-0.03935325390612485</v>
+        <v>-0.04987021770531717</v>
+      </c>
+      <c r="F104">
+        <v>-0.03868257488054305</v>
+      </c>
+      <c r="G104">
+        <v>-0.03127573829682809</v>
       </c>
     </row>
   </sheetData>
